--- a/_sources/Map1.xlsx
+++ b/_sources/Map1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lantelbv-my.sharepoint.com/personal/p_krijgsman_lantel_nl/Documents/Documenten/GitHub/mkdocs-mhenry/_sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lantelbv-my.sharepoint.com/personal/p_krijgsman_lantel_nl/Documents/Documenten/GitHub/matthewhenry1662.github.io/_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{8263A500-19F0-4D22-9577-3AB19DFBFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6003C885-7B11-493A-86AE-3B950BD47DF0}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{8263A500-19F0-4D22-9577-3AB19DFBFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B17E511-72A1-479A-97A5-F2E149E4625D}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" activeTab="1" xr2:uid="{528F4196-CBD8-4386-8B1B-C47A1C296EE6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="11">
   <si>
     <t>mkdir "</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">../Psalm </t>
+  </si>
+  <si>
+    <t>2Samuel</t>
+  </si>
+  <si>
+    <t>2Kronieken</t>
+  </si>
+  <si>
+    <t>./2Kronieken</t>
   </si>
 </sst>
 </file>
@@ -434,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1078740-9DDD-4667-8D7C-D5114D0D6B21}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E150"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -448,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -458,7 +467,7 @@
       </c>
       <c r="E1" t="str">
         <f>_xlfn.CONCAT(A1,B1,C1,D1)</f>
-        <v>mkdir "Psalm 1"</v>
+        <v>mkdir "2Kronieken1"</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -466,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -476,7 +485,7 @@
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E50" si="0">_xlfn.CONCAT(A2,B2,C2,D2)</f>
-        <v>mkdir "Psalm 2"</v>
+        <v>mkdir "2Kronieken2"</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -484,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -494,7 +503,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 3"</v>
+        <v>mkdir "2Kronieken3"</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -502,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -512,7 +521,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 4"</v>
+        <v>mkdir "2Kronieken4"</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -520,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -530,7 +539,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 5"</v>
+        <v>mkdir "2Kronieken5"</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -538,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -548,7 +557,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 6"</v>
+        <v>mkdir "2Kronieken6"</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -556,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -566,7 +575,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 7 "</v>
+        <v>mkdir "2Kronieken7 "</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -574,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -584,7 +593,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 8"</v>
+        <v>mkdir "2Kronieken8"</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -592,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -602,7 +611,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 9"</v>
+        <v>mkdir "2Kronieken9"</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -610,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -620,7 +629,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 10"</v>
+        <v>mkdir "2Kronieken10"</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -628,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -638,7 +647,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 11"</v>
+        <v>mkdir "2Kronieken11"</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -646,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -656,7 +665,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 12"</v>
+        <v>mkdir "2Kronieken12"</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -664,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -674,7 +683,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 13"</v>
+        <v>mkdir "2Kronieken13"</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -692,7 +701,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 14"</v>
+        <v>mkdir "2Kronieken14"</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -700,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -710,7 +719,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 15"</v>
+        <v>mkdir "2Kronieken15"</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -718,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -728,7 +737,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 16"</v>
+        <v>mkdir "2Kronieken16"</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -736,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -746,7 +755,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 17"</v>
+        <v>mkdir "2Kronieken17"</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -754,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -764,7 +773,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 18"</v>
+        <v>mkdir "2Kronieken18"</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -772,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -782,7 +791,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 19"</v>
+        <v>mkdir "2Kronieken19"</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -790,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -800,7 +809,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 20"</v>
+        <v>mkdir "2Kronieken20"</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -808,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -818,7 +827,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 21"</v>
+        <v>mkdir "2Kronieken21"</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -826,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -836,7 +845,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 22"</v>
+        <v>mkdir "2Kronieken22"</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -844,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>23</v>
@@ -854,7 +863,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 23"</v>
+        <v>mkdir "2Kronieken23"</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -862,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>24</v>
@@ -872,7 +881,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 24"</v>
+        <v>mkdir "2Kronieken24"</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -880,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -890,7 +899,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 25"</v>
+        <v>mkdir "2Kronieken25"</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -898,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>26</v>
@@ -908,7 +917,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 26"</v>
+        <v>mkdir "2Kronieken26"</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -916,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>27</v>
@@ -926,7 +935,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 27"</v>
+        <v>mkdir "2Kronieken27"</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -934,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>28</v>
@@ -944,7 +953,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 28"</v>
+        <v>mkdir "2Kronieken28"</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -952,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>29</v>
@@ -962,7 +971,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 29"</v>
+        <v>mkdir "2Kronieken29"</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -970,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -980,7 +989,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 30"</v>
+        <v>mkdir "2Kronieken30"</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -988,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -998,7 +1007,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 31"</v>
+        <v>mkdir "2Kronieken31"</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1006,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -1016,7 +1025,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 32"</v>
+        <v>mkdir "2Kronieken32"</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1024,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>33</v>
@@ -1034,7 +1043,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 33"</v>
+        <v>mkdir "2Kronieken33"</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>34</v>
@@ -1052,7 +1061,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 34"</v>
+        <v>mkdir "2Kronieken34"</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1060,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>35</v>
@@ -1070,7 +1079,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 35"</v>
+        <v>mkdir "2Kronieken35"</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1078,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>36</v>
@@ -1088,7 +1097,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 36"</v>
+        <v>mkdir "2Kronieken36"</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1096,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37">
         <v>37</v>
@@ -1106,7 +1115,7 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 37"</v>
+        <v>mkdir "2Samuel37"</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1114,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38">
         <v>38</v>
@@ -1124,7 +1133,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 38"</v>
+        <v>mkdir "2Samuel38"</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1132,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>39</v>
@@ -1142,7 +1151,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 39"</v>
+        <v>mkdir "2Samuel39"</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1150,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40">
         <v>40</v>
@@ -1160,7 +1169,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 40"</v>
+        <v>mkdir "2Samuel40"</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1168,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>41</v>
@@ -1178,7 +1187,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 41"</v>
+        <v>mkdir "2Samuel41"</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1186,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>42</v>
@@ -1196,7 +1205,7 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 42"</v>
+        <v>mkdir "2Samuel42"</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1204,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>43</v>
@@ -1214,7 +1223,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 43"</v>
+        <v>mkdir "2Samuel43"</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1222,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <v>44</v>
@@ -1232,7 +1241,7 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 44"</v>
+        <v>mkdir "2Samuel44"</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1240,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -1250,7 +1259,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 45"</v>
+        <v>mkdir "2Samuel45"</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1258,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
         <v>46</v>
@@ -1268,7 +1277,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 46"</v>
+        <v>mkdir "2Samuel46"</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1276,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47">
         <v>47</v>
@@ -1286,7 +1295,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 47"</v>
+        <v>mkdir "2Samuel47"</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1294,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>48</v>
@@ -1304,7 +1313,7 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 48"</v>
+        <v>mkdir "2Samuel48"</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1312,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>49</v>
@@ -1322,7 +1331,7 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 49"</v>
+        <v>mkdir "2Samuel49"</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1330,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>50</v>
@@ -1340,7 +1349,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Psalm 50"</v>
+        <v>mkdir "2Samuel50"</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1348,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>51</v>
@@ -1358,7 +1367,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" ref="E51:E114" si="1">_xlfn.CONCAT(A51,B51,C51,D51)</f>
-        <v>mkdir "Psalm 51"</v>
+        <v>mkdir "2Samuel51"</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1366,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>52</v>
@@ -1376,7 +1385,7 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 52"</v>
+        <v>mkdir "2Samuel52"</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -1384,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>53</v>
@@ -1394,7 +1403,7 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 53"</v>
+        <v>mkdir "2Samuel53"</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -1402,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>54</v>
@@ -1412,7 +1421,7 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 54"</v>
+        <v>mkdir "2Samuel54"</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -1420,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55">
         <v>55</v>
@@ -1430,7 +1439,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 55"</v>
+        <v>mkdir "2Samuel55"</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -1438,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>56</v>
@@ -1448,7 +1457,7 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 56"</v>
+        <v>mkdir "2Samuel56"</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -1456,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>57</v>
@@ -1466,7 +1475,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 57"</v>
+        <v>mkdir "2Samuel57"</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -3152,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE10FD9-0038-4C40-9823-1A310D62DCFD}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3174,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -3184,7 +3193,7 @@
       </c>
       <c r="F1" t="str">
         <f>_xlfn.CONCAT(A1,B1,C1,D1,E1)</f>
-        <v>copy index.md "../Psalm 1/"</v>
+        <v>copy index.md "./2Kronieken1/"</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -3195,7 +3204,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3205,7 +3214,7 @@
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="0">_xlfn.CONCAT(A2,B2,C2,D2,E2)</f>
-        <v>copy index.md "../Psalm 2/"</v>
+        <v>copy index.md "./2Kronieken2/"</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -3216,7 +3225,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3226,7 +3235,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 3/"</v>
+        <v>copy index.md "./2Kronieken3/"</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -3237,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3247,7 +3256,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 4/"</v>
+        <v>copy index.md "./2Kronieken4/"</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -3258,7 +3267,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3268,7 +3277,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 5/"</v>
+        <v>copy index.md "./2Kronieken5/"</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -3279,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -3289,7 +3298,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 6/"</v>
+        <v>copy index.md "./2Kronieken6/"</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -3300,7 +3309,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -3310,7 +3319,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 7/"</v>
+        <v>copy index.md "./2Kronieken7/"</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -3321,7 +3330,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -3331,7 +3340,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 8/"</v>
+        <v>copy index.md "./2Kronieken8/"</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -3342,7 +3351,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -3352,7 +3361,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 9/"</v>
+        <v>copy index.md "./2Kronieken9/"</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -3363,7 +3372,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3373,7 +3382,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 10/"</v>
+        <v>copy index.md "./2Kronieken10/"</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3384,7 +3393,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -3394,7 +3403,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 11/"</v>
+        <v>copy index.md "./2Kronieken11/"</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -3405,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -3415,7 +3424,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 12/"</v>
+        <v>copy index.md "./2Kronieken12/"</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -3426,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -3436,7 +3445,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 13/"</v>
+        <v>copy index.md "./2Kronieken13/"</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -3447,7 +3456,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -3457,7 +3466,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 14/"</v>
+        <v>copy index.md "./2Kronieken14/"</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -3468,7 +3477,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -3478,7 +3487,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 15/"</v>
+        <v>copy index.md "./2Kronieken15/"</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -3489,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -3499,7 +3508,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 16/"</v>
+        <v>copy index.md "./2Kronieken16/"</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -3510,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -3520,7 +3529,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 17/"</v>
+        <v>copy index.md "./2Kronieken17/"</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -3531,7 +3540,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -3541,7 +3550,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 18/"</v>
+        <v>copy index.md "./2Kronieken18/"</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -3552,7 +3561,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -3562,7 +3571,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 19/"</v>
+        <v>copy index.md "./2Kronieken19/"</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -3573,7 +3582,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -3583,7 +3592,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 20/"</v>
+        <v>copy index.md "./2Kronieken20/"</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -3594,7 +3603,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21">
         <v>21</v>
@@ -3604,7 +3613,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 21/"</v>
+        <v>copy index.md "./2Kronieken21/"</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -3615,7 +3624,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>22</v>
@@ -3625,7 +3634,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 22/"</v>
+        <v>copy index.md "./2Kronieken22/"</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -3636,7 +3645,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23">
         <v>23</v>
@@ -3646,7 +3655,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 23/"</v>
+        <v>copy index.md "./2Kronieken23/"</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -3657,7 +3666,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -3667,7 +3676,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 24/"</v>
+        <v>copy index.md "./2Kronieken24/"</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -3678,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -3688,7 +3697,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 25/"</v>
+        <v>copy index.md "./2Kronieken25/"</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -3699,7 +3708,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -3709,7 +3718,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 26/"</v>
+        <v>copy index.md "./2Kronieken26/"</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -3720,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>27</v>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 27/"</v>
+        <v>copy index.md "./2Kronieken27/"</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -3741,7 +3750,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>28</v>
@@ -3751,7 +3760,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 28/"</v>
+        <v>copy index.md "./2Kronieken28/"</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -3762,7 +3771,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>29</v>
@@ -3772,7 +3781,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 29/"</v>
+        <v>copy index.md "./2Kronieken29/"</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -3783,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -3793,7 +3802,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 30/"</v>
+        <v>copy index.md "./2Kronieken30/"</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -3804,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>31</v>
@@ -3814,7 +3823,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 31/"</v>
+        <v>copy index.md "./2Kronieken31/"</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -3825,7 +3834,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -3835,7 +3844,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 32/"</v>
+        <v>copy index.md "./2Kronieken32/"</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -3846,7 +3855,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>33</v>
@@ -3856,7 +3865,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 33/"</v>
+        <v>copy index.md "./2Kronieken33/"</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -3867,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>34</v>
@@ -3877,7 +3886,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 34/"</v>
+        <v>copy index.md "./2Kronieken34/"</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -3888,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -3898,7 +3907,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 35/"</v>
+        <v>copy index.md "./2Kronieken35/"</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -3909,7 +3918,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>36</v>
@@ -3919,7 +3928,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 36/"</v>
+        <v>copy index.md "./2Kronieken36/"</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">

--- a/_sources/Map1.xlsx
+++ b/_sources/Map1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lantelbv-my.sharepoint.com/personal/p_krijgsman_lantel_nl/Documents/Documenten/GitHub/matthewhenry1662.github.io/_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{8263A500-19F0-4D22-9577-3AB19DFBFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B17E511-72A1-479A-97A5-F2E149E4625D}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{8263A500-19F0-4D22-9577-3AB19DFBFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C25011B6-A93E-4777-A9D7-0402F5ED79F6}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" activeTab="1" xr2:uid="{528F4196-CBD8-4386-8B1B-C47A1C296EE6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{528F4196-CBD8-4386-8B1B-C47A1C296EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="13">
   <si>
     <t>mkdir "</t>
   </si>
@@ -66,10 +66,16 @@
     <t>2Samuel</t>
   </si>
   <si>
-    <t>2Kronieken</t>
+    <t>./Job</t>
   </si>
   <si>
-    <t>./2Kronieken</t>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>./Spreuken</t>
+  </si>
+  <si>
+    <t>Spreuken</t>
   </si>
 </sst>
 </file>
@@ -443,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1078740-9DDD-4667-8D7C-D5114D0D6B21}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -457,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -467,7 +473,7 @@
       </c>
       <c r="E1" t="str">
         <f>_xlfn.CONCAT(A1,B1,C1,D1)</f>
-        <v>mkdir "2Kronieken1"</v>
+        <v>mkdir "Spreuken1"</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -475,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -485,7 +491,7 @@
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E50" si="0">_xlfn.CONCAT(A2,B2,C2,D2)</f>
-        <v>mkdir "2Kronieken2"</v>
+        <v>mkdir "Spreuken2"</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -493,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -503,7 +509,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken3"</v>
+        <v>mkdir "Spreuken3"</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -511,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -521,7 +527,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken4"</v>
+        <v>mkdir "Spreuken4"</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -529,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -539,7 +545,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken5"</v>
+        <v>mkdir "Spreuken5"</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -547,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -557,7 +563,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken6"</v>
+        <v>mkdir "Spreuken6"</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -565,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -575,7 +581,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken7 "</v>
+        <v>mkdir "Spreuken7 "</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -583,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -593,7 +599,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken8"</v>
+        <v>mkdir "Spreuken8"</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -601,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -611,7 +617,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken9"</v>
+        <v>mkdir "Spreuken9"</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -619,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -629,7 +635,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken10"</v>
+        <v>mkdir "Spreuken10"</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -637,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -647,7 +653,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken11"</v>
+        <v>mkdir "Spreuken11"</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -655,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -665,7 +671,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken12"</v>
+        <v>mkdir "Spreuken12"</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -683,7 +689,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken13"</v>
+        <v>mkdir "Spreuken13"</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -691,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -701,7 +707,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken14"</v>
+        <v>mkdir "Spreuken14"</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -709,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -719,7 +725,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken15"</v>
+        <v>mkdir "Spreuken15"</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -737,7 +743,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken16"</v>
+        <v>mkdir "Spreuken16"</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -745,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -755,7 +761,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken17"</v>
+        <v>mkdir "Spreuken17"</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -763,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -773,7 +779,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken18"</v>
+        <v>mkdir "Spreuken18"</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -791,7 +797,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken19"</v>
+        <v>mkdir "Spreuken19"</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -809,7 +815,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken20"</v>
+        <v>mkdir "Spreuken20"</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -817,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -827,7 +833,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken21"</v>
+        <v>mkdir "Spreuken21"</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -835,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -845,7 +851,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken22"</v>
+        <v>mkdir "Spreuken22"</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>23</v>
@@ -863,7 +869,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken23"</v>
+        <v>mkdir "Spreuken23"</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>24</v>
@@ -881,7 +887,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken24"</v>
+        <v>mkdir "Spreuken24"</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -889,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -899,7 +905,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken25"</v>
+        <v>mkdir "Spreuken25"</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>26</v>
@@ -917,7 +923,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken26"</v>
+        <v>mkdir "Spreuken26"</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -925,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>27</v>
@@ -935,7 +941,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken27"</v>
+        <v>mkdir "Spreuken27"</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -943,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>28</v>
@@ -953,7 +959,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken28"</v>
+        <v>mkdir "Spreuken28"</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>29</v>
@@ -971,7 +977,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken29"</v>
+        <v>mkdir "Spreuken29"</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -989,7 +995,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken30"</v>
+        <v>mkdir "Spreuken30"</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -1007,7 +1013,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken31"</v>
+        <v>mkdir "Spreuken31"</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -1025,7 +1031,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken32"</v>
+        <v>mkdir "Job32"</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1033,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>33</v>
@@ -1043,7 +1049,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken33"</v>
+        <v>mkdir "Job33"</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1051,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>34</v>
@@ -1061,7 +1067,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken34"</v>
+        <v>mkdir "Job34"</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1069,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>35</v>
@@ -1079,7 +1085,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken35"</v>
+        <v>mkdir "Job35"</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>36</v>
@@ -1097,7 +1103,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Kronieken36"</v>
+        <v>mkdir "Job36"</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1105,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>37</v>
@@ -1115,7 +1121,7 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel37"</v>
+        <v>mkdir "Job37"</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1123,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>38</v>
@@ -1133,7 +1139,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel38"</v>
+        <v>mkdir "Job38"</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1141,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>39</v>
@@ -1151,7 +1157,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel39"</v>
+        <v>mkdir "Job39"</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>40</v>
@@ -1169,7 +1175,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel40"</v>
+        <v>mkdir "Job40"</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1177,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>41</v>
@@ -1187,7 +1193,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel41"</v>
+        <v>mkdir "Job41"</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1195,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>42</v>
@@ -1205,7 +1211,7 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel42"</v>
+        <v>mkdir "Job42"</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -3161,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE10FD9-0038-4C40-9823-1A310D62DCFD}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3183,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -3193,7 +3199,7 @@
       </c>
       <c r="F1" t="str">
         <f>_xlfn.CONCAT(A1,B1,C1,D1,E1)</f>
-        <v>copy index.md "./2Kronieken1/"</v>
+        <v>copy index.md "./Spreuken1/"</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -3204,7 +3210,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3214,7 +3220,7 @@
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="0">_xlfn.CONCAT(A2,B2,C2,D2,E2)</f>
-        <v>copy index.md "./2Kronieken2/"</v>
+        <v>copy index.md "./Spreuken2/"</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -3225,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3235,7 +3241,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken3/"</v>
+        <v>copy index.md "./Spreuken3/"</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -3246,7 +3252,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3256,7 +3262,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken4/"</v>
+        <v>copy index.md "./Spreuken4/"</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -3267,7 +3273,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3277,7 +3283,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken5/"</v>
+        <v>copy index.md "./Spreuken5/"</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -3288,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -3298,7 +3304,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken6/"</v>
+        <v>copy index.md "./Spreuken6/"</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -3309,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -3319,7 +3325,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken7/"</v>
+        <v>copy index.md "./Spreuken7/"</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -3330,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -3340,7 +3346,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken8/"</v>
+        <v>copy index.md "./Spreuken8/"</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -3351,7 +3357,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -3361,7 +3367,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken9/"</v>
+        <v>copy index.md "./Spreuken9/"</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -3372,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3382,7 +3388,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken10/"</v>
+        <v>copy index.md "./Spreuken10/"</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3393,7 +3399,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -3403,7 +3409,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken11/"</v>
+        <v>copy index.md "./Spreuken11/"</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -3414,7 +3420,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -3424,7 +3430,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken12/"</v>
+        <v>copy index.md "./Spreuken12/"</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -3435,7 +3441,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -3445,7 +3451,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken13/"</v>
+        <v>copy index.md "./Spreuken13/"</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -3456,7 +3462,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -3466,7 +3472,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken14/"</v>
+        <v>copy index.md "./Spreuken14/"</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -3477,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -3487,7 +3493,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken15/"</v>
+        <v>copy index.md "./Spreuken15/"</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -3498,7 +3504,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -3508,7 +3514,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken16/"</v>
+        <v>copy index.md "./Spreuken16/"</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -3519,7 +3525,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -3529,7 +3535,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken17/"</v>
+        <v>copy index.md "./Spreuken17/"</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -3540,7 +3546,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -3550,7 +3556,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken18/"</v>
+        <v>copy index.md "./Spreuken18/"</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -3561,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -3571,7 +3577,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken19/"</v>
+        <v>copy index.md "./Spreuken19/"</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -3582,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -3592,7 +3598,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken20/"</v>
+        <v>copy index.md "./Spreuken20/"</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -3603,7 +3609,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <v>21</v>
@@ -3613,7 +3619,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken21/"</v>
+        <v>copy index.md "./Spreuken21/"</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -3624,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22">
         <v>22</v>
@@ -3634,7 +3640,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken22/"</v>
+        <v>copy index.md "./Spreuken22/"</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -3645,7 +3651,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>23</v>
@@ -3655,7 +3661,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken23/"</v>
+        <v>copy index.md "./Spreuken23/"</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -3666,7 +3672,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -3676,7 +3682,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken24/"</v>
+        <v>copy index.md "./Spreuken24/"</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -3687,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -3697,7 +3703,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken25/"</v>
+        <v>copy index.md "./Spreuken25/"</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -3708,7 +3714,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -3718,7 +3724,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken26/"</v>
+        <v>copy index.md "./Spreuken26/"</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -3729,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27">
         <v>27</v>
@@ -3739,7 +3745,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken27/"</v>
+        <v>copy index.md "./Spreuken27/"</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -3750,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>28</v>
@@ -3760,7 +3766,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken28/"</v>
+        <v>copy index.md "./Spreuken28/"</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -3771,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>29</v>
@@ -3781,7 +3787,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken29/"</v>
+        <v>copy index.md "./Spreuken29/"</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -3792,7 +3798,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -3802,7 +3808,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken30/"</v>
+        <v>copy index.md "./Spreuken30/"</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -3813,7 +3819,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>31</v>
@@ -3823,7 +3829,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken31/"</v>
+        <v>copy index.md "./Spreuken31/"</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -3834,7 +3840,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -3844,7 +3850,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken32/"</v>
+        <v>copy index.md "./Job32/"</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -3855,7 +3861,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33">
         <v>33</v>
@@ -3865,7 +3871,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken33/"</v>
+        <v>copy index.md "./Job33/"</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -3876,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34">
         <v>34</v>
@@ -3886,7 +3892,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken34/"</v>
+        <v>copy index.md "./Job34/"</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -3897,7 +3903,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -3907,7 +3913,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken35/"</v>
+        <v>copy index.md "./Job35/"</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -3918,7 +3924,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36">
         <v>36</v>
@@ -3928,7 +3934,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./2Kronieken36/"</v>
+        <v>copy index.md "./Job36/"</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -3939,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <v>37</v>
@@ -3949,7 +3955,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 37/"</v>
+        <v>copy index.md "./Job37/"</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -3960,7 +3966,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D38">
         <v>38</v>
@@ -3970,7 +3976,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 38/"</v>
+        <v>copy index.md "./Job38/"</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -3981,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <v>39</v>
@@ -3991,7 +3997,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 39/"</v>
+        <v>copy index.md "./Job39/"</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -4002,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D40">
         <v>40</v>
@@ -4012,7 +4018,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 40/"</v>
+        <v>copy index.md "./Job40/"</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -4023,7 +4029,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D41">
         <v>41</v>
@@ -4033,7 +4039,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 41/"</v>
+        <v>copy index.md "./Job41/"</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -4044,7 +4050,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D42">
         <v>42</v>
@@ -4054,7 +4060,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 42/"</v>
+        <v>copy index.md "./Job42/"</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">

--- a/_sources/Map1.xlsx
+++ b/_sources/Map1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lantelbv-my.sharepoint.com/personal/p_krijgsman_lantel_nl/Documents/Documenten/GitHub/matthewhenry1662.github.io/_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{8263A500-19F0-4D22-9577-3AB19DFBFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C25011B6-A93E-4777-A9D7-0402F5ED79F6}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{8263A500-19F0-4D22-9577-3AB19DFBFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4612BAC5-EDED-4FF0-9CCC-256A743707D5}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" xr2:uid="{528F4196-CBD8-4386-8B1B-C47A1C296EE6}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" activeTab="1" xr2:uid="{528F4196-CBD8-4386-8B1B-C47A1C296EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="16">
   <si>
     <t>mkdir "</t>
   </si>
@@ -63,19 +63,28 @@
     <t xml:space="preserve">../Psalm </t>
   </si>
   <si>
-    <t>2Samuel</t>
+    <t>./Jesaja</t>
   </si>
   <si>
-    <t>./Job</t>
+    <t>Jesaja</t>
   </si>
   <si>
-    <t>Job</t>
+    <t>Jeremia</t>
   </si>
   <si>
-    <t>./Spreuken</t>
+    <t>./Jeremia</t>
   </si>
   <si>
-    <t>Spreuken</t>
+    <t>./Ezechiel</t>
+  </si>
+  <si>
+    <t>Ezechiel</t>
+  </si>
+  <si>
+    <t>./Daniel</t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
@@ -449,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1078740-9DDD-4667-8D7C-D5114D0D6B21}">
   <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -463,7 +472,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -473,7 +482,7 @@
       </c>
       <c r="E1" t="str">
         <f>_xlfn.CONCAT(A1,B1,C1,D1)</f>
-        <v>mkdir "Spreuken1"</v>
+        <v>mkdir "Daniel1"</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -481,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -491,7 +500,7 @@
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E50" si="0">_xlfn.CONCAT(A2,B2,C2,D2)</f>
-        <v>mkdir "Spreuken2"</v>
+        <v>mkdir "Daniel2"</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -499,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -509,7 +518,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken3"</v>
+        <v>mkdir "Daniel3"</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -517,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -527,7 +536,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken4"</v>
+        <v>mkdir "Daniel4"</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -535,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -545,7 +554,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken5"</v>
+        <v>mkdir "Daniel5"</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -553,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -563,7 +572,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken6"</v>
+        <v>mkdir "Daniel6"</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -571,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -581,7 +590,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken7 "</v>
+        <v>mkdir "Daniel7 "</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -589,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -599,7 +608,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken8"</v>
+        <v>mkdir "Daniel8"</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -607,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -617,7 +626,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken9"</v>
+        <v>mkdir "Daniel9"</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -625,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -635,7 +644,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken10"</v>
+        <v>mkdir "Daniel10"</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -643,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -653,7 +662,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken11"</v>
+        <v>mkdir "Daniel11"</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -661,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -671,7 +680,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken12"</v>
+        <v>mkdir "Daniel12"</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -679,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -689,7 +698,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken13"</v>
+        <v>mkdir "Ezechiel13"</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -697,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -707,7 +716,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken14"</v>
+        <v>mkdir "Ezechiel14"</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -715,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -725,7 +734,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken15"</v>
+        <v>mkdir "Ezechiel15"</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -733,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -743,7 +752,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken16"</v>
+        <v>mkdir "Ezechiel16"</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -751,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -761,7 +770,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken17"</v>
+        <v>mkdir "Ezechiel17"</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -769,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>18</v>
@@ -779,7 +788,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken18"</v>
+        <v>mkdir "Ezechiel18"</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -787,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -797,7 +806,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken19"</v>
+        <v>mkdir "Ezechiel19"</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -805,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>20</v>
@@ -815,7 +824,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken20"</v>
+        <v>mkdir "Ezechiel20"</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -823,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>21</v>
@@ -833,7 +842,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken21"</v>
+        <v>mkdir "Ezechiel21"</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22">
         <v>22</v>
@@ -851,7 +860,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken22"</v>
+        <v>mkdir "Ezechiel22"</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23">
         <v>23</v>
@@ -869,7 +878,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken23"</v>
+        <v>mkdir "Ezechiel23"</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -877,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>24</v>
@@ -887,7 +896,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken24"</v>
+        <v>mkdir "Ezechiel24"</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -895,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25">
         <v>25</v>
@@ -905,7 +914,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken25"</v>
+        <v>mkdir "Ezechiel25"</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -913,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26">
         <v>26</v>
@@ -923,7 +932,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken26"</v>
+        <v>mkdir "Ezechiel26"</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27">
         <v>27</v>
@@ -941,7 +950,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken27"</v>
+        <v>mkdir "Ezechiel27"</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -949,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>28</v>
@@ -959,7 +968,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken28"</v>
+        <v>mkdir "Ezechiel28"</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
@@ -967,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>29</v>
@@ -977,7 +986,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken29"</v>
+        <v>mkdir "Ezechiel29"</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -985,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>30</v>
@@ -995,7 +1004,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken30"</v>
+        <v>mkdir "Ezechiel30"</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -1003,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -1013,7 +1022,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Spreuken31"</v>
+        <v>mkdir "Ezechiel31"</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
@@ -1021,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>32</v>
@@ -1031,7 +1040,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job32"</v>
+        <v>mkdir "Ezechiel32"</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
@@ -1039,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>33</v>
@@ -1049,7 +1058,7 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job33"</v>
+        <v>mkdir "Ezechiel33"</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
@@ -1057,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>34</v>
@@ -1067,7 +1076,7 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job34"</v>
+        <v>mkdir "Ezechiel34"</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1075,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35">
         <v>35</v>
@@ -1085,7 +1094,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job35"</v>
+        <v>mkdir "Ezechiel35"</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1093,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C36">
         <v>36</v>
@@ -1103,7 +1112,7 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job36"</v>
+        <v>mkdir "Ezechiel36"</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
@@ -1111,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>37</v>
@@ -1121,7 +1130,7 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job37"</v>
+        <v>mkdir "Ezechiel37"</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
@@ -1129,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>38</v>
@@ -1139,7 +1148,7 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job38"</v>
+        <v>mkdir "Ezechiel38"</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1147,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <v>39</v>
@@ -1157,7 +1166,7 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job39"</v>
+        <v>mkdir "Ezechiel39"</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1165,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>40</v>
@@ -1175,7 +1184,7 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job40"</v>
+        <v>mkdir "Ezechiel40"</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
@@ -1183,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C41">
         <v>41</v>
@@ -1193,7 +1202,7 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job41"</v>
+        <v>mkdir "Ezechiel41"</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1201,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>42</v>
@@ -1211,7 +1220,7 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "Job42"</v>
+        <v>mkdir "Ezechiel42"</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
@@ -1219,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>43</v>
@@ -1229,7 +1238,7 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel43"</v>
+        <v>mkdir "Ezechiel43"</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
@@ -1237,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>44</v>
@@ -1247,7 +1256,7 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel44"</v>
+        <v>mkdir "Ezechiel44"</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
@@ -1255,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>45</v>
@@ -1265,7 +1274,7 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel45"</v>
+        <v>mkdir "Ezechiel45"</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
@@ -1273,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>46</v>
@@ -1283,7 +1292,7 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel46"</v>
+        <v>mkdir "Ezechiel46"</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
@@ -1291,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>47</v>
@@ -1301,7 +1310,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel47"</v>
+        <v>mkdir "Ezechiel47"</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
@@ -1309,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>48</v>
@@ -1319,7 +1328,7 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel48"</v>
+        <v>mkdir "Ezechiel48"</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1327,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>49</v>
@@ -1337,7 +1346,7 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel49"</v>
+        <v>mkdir "Jeremia49"</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
@@ -1345,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>50</v>
@@ -1355,7 +1364,7 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>mkdir "2Samuel50"</v>
+        <v>mkdir "Jeremia50"</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1363,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>51</v>
@@ -1373,7 +1382,7 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" ref="E51:E114" si="1">_xlfn.CONCAT(A51,B51,C51,D51)</f>
-        <v>mkdir "2Samuel51"</v>
+        <v>mkdir "Jeremia51"</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1381,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>52</v>
@@ -1391,7 +1400,7 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "2Samuel52"</v>
+        <v>mkdir "Jeremia52"</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
@@ -1399,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>53</v>
@@ -1409,7 +1418,7 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "2Samuel53"</v>
+        <v>mkdir "Jesaja53"</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -1417,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>54</v>
@@ -1427,7 +1436,7 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "2Samuel54"</v>
+        <v>mkdir "Jesaja54"</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -1435,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>55</v>
@@ -1445,7 +1454,7 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "2Samuel55"</v>
+        <v>mkdir "Jesaja55"</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
@@ -1453,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56">
         <v>56</v>
@@ -1463,7 +1472,7 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "2Samuel56"</v>
+        <v>mkdir "Jesaja56"</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -1471,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57">
         <v>57</v>
@@ -1481,7 +1490,7 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "2Samuel57"</v>
+        <v>mkdir "Jesaja57"</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -1489,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>58</v>
@@ -1499,7 +1508,7 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 58"</v>
+        <v>mkdir "Jesaja58"</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -1507,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>59</v>
@@ -1517,7 +1526,7 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 59"</v>
+        <v>mkdir "Jesaja59"</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
@@ -1525,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>60</v>
@@ -1535,7 +1544,7 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 60"</v>
+        <v>mkdir "Jesaja60"</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
@@ -1543,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61">
         <v>61</v>
@@ -1553,7 +1562,7 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 61"</v>
+        <v>mkdir "Jesaja61"</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -1561,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C62">
         <v>62</v>
@@ -1571,7 +1580,7 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 62"</v>
+        <v>mkdir "Jesaja62"</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -1579,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C63">
         <v>63</v>
@@ -1589,7 +1598,7 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 63"</v>
+        <v>mkdir "Jesaja63"</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -1597,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>64</v>
@@ -1607,7 +1616,7 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 64"</v>
+        <v>mkdir "Jesaja64"</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -1615,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C65">
         <v>65</v>
@@ -1625,7 +1634,7 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 65"</v>
+        <v>mkdir "Jesaja65"</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -1633,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66">
         <v>66</v>
@@ -1643,7 +1652,7 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir "Psalm 66"</v>
+        <v>mkdir "Jesaja66"</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
@@ -3167,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE10FD9-0038-4C40-9823-1A310D62DCFD}">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3189,7 +3198,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1">
         <v>1</v>
@@ -3199,7 +3208,7 @@
       </c>
       <c r="F1" t="str">
         <f>_xlfn.CONCAT(A1,B1,C1,D1,E1)</f>
-        <v>copy index.md "./Spreuken1/"</v>
+        <v>copy index.md "./Daniel1/"</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -3210,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -3220,7 +3229,7 @@
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F65" si="0">_xlfn.CONCAT(A2,B2,C2,D2,E2)</f>
-        <v>copy index.md "./Spreuken2/"</v>
+        <v>copy index.md "./Daniel2/"</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -3231,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3241,7 +3250,7 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken3/"</v>
+        <v>copy index.md "./Daniel3/"</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -3252,7 +3261,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3262,7 +3271,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken4/"</v>
+        <v>copy index.md "./Daniel4/"</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -3273,7 +3282,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3283,7 +3292,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken5/"</v>
+        <v>copy index.md "./Daniel5/"</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -3294,7 +3303,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -3304,7 +3313,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken6/"</v>
+        <v>copy index.md "./Daniel6/"</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -3315,7 +3324,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -3325,7 +3334,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken7/"</v>
+        <v>copy index.md "./Daniel7/"</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -3336,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -3346,7 +3355,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken8/"</v>
+        <v>copy index.md "./Daniel8/"</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -3357,7 +3366,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -3367,7 +3376,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken9/"</v>
+        <v>copy index.md "./Daniel9/"</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -3378,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3388,7 +3397,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken10/"</v>
+        <v>copy index.md "./Daniel10/"</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -3399,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -3409,7 +3418,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken11/"</v>
+        <v>copy index.md "./Daniel11/"</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -3420,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -3430,7 +3439,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken12/"</v>
+        <v>copy index.md "./Daniel12/"</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -3441,7 +3450,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -3451,7 +3460,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken13/"</v>
+        <v>copy index.md "./Ezechiel13/"</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -3462,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -3472,7 +3481,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken14/"</v>
+        <v>copy index.md "./Ezechiel14/"</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -3483,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -3493,7 +3502,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken15/"</v>
+        <v>copy index.md "./Ezechiel15/"</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -3504,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -3514,7 +3523,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken16/"</v>
+        <v>copy index.md "./Ezechiel16/"</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -3525,7 +3534,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -3535,7 +3544,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken17/"</v>
+        <v>copy index.md "./Ezechiel17/"</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -3546,7 +3555,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -3556,7 +3565,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken18/"</v>
+        <v>copy index.md "./Ezechiel18/"</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -3567,7 +3576,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -3577,7 +3586,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken19/"</v>
+        <v>copy index.md "./Ezechiel19/"</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -3588,7 +3597,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -3598,7 +3607,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken20/"</v>
+        <v>copy index.md "./Ezechiel20/"</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -3609,7 +3618,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21">
         <v>21</v>
@@ -3619,7 +3628,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken21/"</v>
+        <v>copy index.md "./Ezechiel21/"</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -3630,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>22</v>
@@ -3640,7 +3649,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken22/"</v>
+        <v>copy index.md "./Ezechiel22/"</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -3651,7 +3660,7 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23">
         <v>23</v>
@@ -3661,7 +3670,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken23/"</v>
+        <v>copy index.md "./Ezechiel23/"</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -3672,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -3682,7 +3691,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken24/"</v>
+        <v>copy index.md "./Ezechiel24/"</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -3693,7 +3702,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -3703,7 +3712,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken25/"</v>
+        <v>copy index.md "./Ezechiel25/"</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -3714,7 +3723,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -3724,7 +3733,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken26/"</v>
+        <v>copy index.md "./Ezechiel26/"</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -3735,7 +3744,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
         <v>27</v>
@@ -3745,7 +3754,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken27/"</v>
+        <v>copy index.md "./Ezechiel27/"</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -3756,7 +3765,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>28</v>
@@ -3766,7 +3775,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken28/"</v>
+        <v>copy index.md "./Ezechiel28/"</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -3777,7 +3786,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>29</v>
@@ -3787,7 +3796,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken29/"</v>
+        <v>copy index.md "./Ezechiel29/"</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -3798,7 +3807,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -3808,7 +3817,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken30/"</v>
+        <v>copy index.md "./Ezechiel30/"</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -3819,7 +3828,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31">
         <v>31</v>
@@ -3829,7 +3838,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Spreuken31/"</v>
+        <v>copy index.md "./Ezechiel31/"</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -3840,7 +3849,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -3850,7 +3859,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job32/"</v>
+        <v>copy index.md "./Ezechiel32/"</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -3861,7 +3870,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>33</v>
@@ -3871,7 +3880,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job33/"</v>
+        <v>copy index.md "./Ezechiel33/"</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -3882,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>34</v>
@@ -3892,7 +3901,7 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job34/"</v>
+        <v>copy index.md "./Ezechiel34/"</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -3903,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -3913,7 +3922,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job35/"</v>
+        <v>copy index.md "./Ezechiel35/"</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -3924,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>36</v>
@@ -3934,7 +3943,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job36/"</v>
+        <v>copy index.md "./Ezechiel36/"</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -3945,7 +3954,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <v>37</v>
@@ -3955,7 +3964,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job37/"</v>
+        <v>copy index.md "./Ezechiel37/"</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -3966,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38">
         <v>38</v>
@@ -3976,7 +3985,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job38/"</v>
+        <v>copy index.md "./Ezechiel38/"</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -3987,7 +3996,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>39</v>
@@ -3997,7 +4006,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job39/"</v>
+        <v>copy index.md "./Ezechiel39/"</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -4008,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>40</v>
@@ -4018,7 +4027,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job40/"</v>
+        <v>copy index.md "./Ezechiel40/"</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -4029,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41">
         <v>41</v>
@@ -4039,7 +4048,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job41/"</v>
+        <v>copy index.md "./Ezechiel41/"</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -4050,7 +4059,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42">
         <v>42</v>
@@ -4060,7 +4069,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "./Job42/"</v>
+        <v>copy index.md "./Ezechiel42/"</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -4071,7 +4080,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>43</v>
@@ -4081,7 +4090,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 43/"</v>
+        <v>copy index.md "./Ezechiel43/"</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -4092,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>44</v>
@@ -4102,7 +4111,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 44/"</v>
+        <v>copy index.md "./Ezechiel44/"</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -4113,7 +4122,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>45</v>
@@ -4123,7 +4132,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 45/"</v>
+        <v>copy index.md "./Ezechiel45/"</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -4134,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D46">
         <v>46</v>
@@ -4144,7 +4153,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 46/"</v>
+        <v>copy index.md "./Ezechiel46/"</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -4155,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D47">
         <v>47</v>
@@ -4165,7 +4174,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 47/"</v>
+        <v>copy index.md "./Ezechiel47/"</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -4176,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D48">
         <v>48</v>
@@ -4186,7 +4195,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 48/"</v>
+        <v>copy index.md "./Ezechiel48/"</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -4197,7 +4206,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D49">
         <v>49</v>
@@ -4207,7 +4216,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 49/"</v>
+        <v>copy index.md "./Jeremia49/"</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -4218,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D50">
         <v>50</v>
@@ -4228,7 +4237,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 50/"</v>
+        <v>copy index.md "./Jeremia50/"</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -4239,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D51">
         <v>51</v>
@@ -4249,7 +4258,7 @@
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 51/"</v>
+        <v>copy index.md "./Jeremia51/"</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -4260,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>52</v>
@@ -4270,7 +4279,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 52/"</v>
+        <v>copy index.md "./Jeremia52/"</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -4281,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53">
         <v>53</v>
@@ -4291,7 +4300,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 53/"</v>
+        <v>copy index.md "./Jesaja53/"</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -4302,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54">
         <v>54</v>
@@ -4312,7 +4321,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 54/"</v>
+        <v>copy index.md "./Jesaja54/"</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
@@ -4323,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55">
         <v>55</v>
@@ -4333,7 +4342,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 55/"</v>
+        <v>copy index.md "./Jesaja55/"</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -4344,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56">
         <v>56</v>
@@ -4354,7 +4363,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 56/"</v>
+        <v>copy index.md "./Jesaja56/"</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -4365,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D57">
         <v>57</v>
@@ -4375,7 +4384,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 57/"</v>
+        <v>copy index.md "./Jesaja57/"</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -4386,7 +4395,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58">
         <v>58</v>
@@ -4396,7 +4405,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 58/"</v>
+        <v>copy index.md "./Jesaja58/"</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -4407,7 +4416,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D59">
         <v>59</v>
@@ -4417,7 +4426,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 59/"</v>
+        <v>copy index.md "./Jesaja59/"</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -4428,7 +4437,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D60">
         <v>60</v>
@@ -4438,7 +4447,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 60/"</v>
+        <v>copy index.md "./Jesaja60/"</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -4449,7 +4458,7 @@
         <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61">
         <v>61</v>
@@ -4459,7 +4468,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 61/"</v>
+        <v>copy index.md "./Jesaja61/"</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -4470,7 +4479,7 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62">
         <v>62</v>
@@ -4480,7 +4489,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 62/"</v>
+        <v>copy index.md "./Jesaja62/"</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -4491,7 +4500,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63">
         <v>63</v>
@@ -4501,7 +4510,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 63/"</v>
+        <v>copy index.md "./Jesaja63/"</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -4512,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D64">
         <v>64</v>
@@ -4522,7 +4531,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 64/"</v>
+        <v>copy index.md "./Jesaja64/"</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -4533,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D65">
         <v>65</v>
@@ -4543,7 +4552,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>copy index.md "../Psalm 65/"</v>
+        <v>copy index.md "./Jesaja65/"</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -4554,7 +4563,7 @@
         <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D66">
         <v>66</v>
@@ -4564,7 +4573,7 @@
       </c>
       <c r="F66" t="str">
         <f>_xlfn.CONCAT(A66,B66,C66,D66,E66)</f>
-        <v>copy index.md "../Psalm 66/"</v>
+        <v>copy index.md "./Jesaja66/"</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
